--- a/GOOS.xlsx
+++ b/GOOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD62BC-3DD0-409E-8CBA-5FE6B96F600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3D07E0-9E73-47A2-9D58-1BDBF8112CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{7219FEDE-1FBF-46EC-A4AD-87567201A78F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{7219FEDE-1FBF-46EC-A4AD-87567201A78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Canada Goose</t>
   </si>
@@ -66,9 +66,6 @@
     <t>numbers in mio CAD</t>
   </si>
   <si>
-    <t>Price USD</t>
-  </si>
-  <si>
     <t>Q324</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>Q424</t>
-  </si>
-  <si>
-    <t>FQ225</t>
   </si>
   <si>
     <t>Q125</t>
@@ -191,13 +185,42 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -253,7 +276,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,6 +287,11 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -602,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8079E2F-FFCD-4B29-9E06-AE64921D75BD}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +649,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J2">
-        <v>15.24</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -632,10 +660,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>96.724923000000004</v>
+        <v>96.820406000000006</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,7 +675,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>1474.0878265200001</v>
+        <v>1202.50944252</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -658,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>68.8</v>
+        <v>333.4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -669,11 +697,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="2">
-        <f>109.8+385.7</f>
-        <v>495.5</v>
+        <f>4.3+407.7</f>
+        <v>412</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -682,7 +710,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>1900.7878265200002</v>
+        <v>1281.1094425199999</v>
       </c>
     </row>
   </sheetData>
@@ -695,13 +723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB81F42-A827-47D5-BA17-D632665DB75E}">
-  <dimension ref="A1:IQ294"/>
+  <dimension ref="A1:IQ297"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="C32:H34"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,58 +740,94 @@
   <sheetData>
     <row r="1" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:251" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
+      <c r="L2" s="5" t="s">
+        <v>52</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
+      <c r="M2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="D3" s="9">
         <v>57.9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="E3" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>70</v>
+      </c>
+      <c r="G3" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="H3" s="9">
         <v>57.7</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="I3" s="9">
+        <v>91.1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P10" si="0">+SUM(C3:F3)</f>
+        <v>246.3</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3:Q10" si="1">+SUM(G3:J3)</f>
+        <v>240.6</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -979,27 +1043,45 @@
     </row>
     <row r="4" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D4" s="9">
         <v>66.2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="E4" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>82.8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="H4" s="9">
         <v>63.4</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="I4" s="9">
+        <v>161.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>324.60000000000002</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="1"/>
+        <v>338.9</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1215,27 +1297,45 @@
     </row>
     <row r="5" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="D5" s="9">
         <v>43.9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="E5" s="9">
+        <v>230.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>128.4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="H5" s="9">
         <v>46.4</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="I5" s="9">
+        <v>219.6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>138.6</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>422.29999999999995</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="1"/>
+        <v>426.5</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1451,27 +1551,45 @@
     </row>
     <row r="6" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
         <v>19.899999999999999</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="E6" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F6" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="H6" s="9">
         <v>19.7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="I6" s="9">
+        <v>50.9</v>
+      </c>
+      <c r="J6" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>84.6</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="1"/>
+        <v>111.2</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1687,27 +1805,45 @@
     </row>
     <row r="7" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="D7" s="9">
         <v>93.2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="E7" s="9">
+        <v>86.8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>57.4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H7" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="I7" s="9">
+        <v>84.8</v>
+      </c>
+      <c r="J7" s="9">
+        <v>48.8</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>256.09999999999997</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="1"/>
+        <v>231.10000000000002</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1923,27 +2059,45 @@
     </row>
     <row r="8" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="9">
+        <v>55.8</v>
+      </c>
+      <c r="D8" s="9">
         <v>109.4</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="E8" s="9">
+        <v>514</v>
+      </c>
+      <c r="F8" s="9">
+        <v>271.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>63.1</v>
+      </c>
+      <c r="H8" s="9">
         <v>103.9</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="I8" s="9">
+        <v>517.79999999999995</v>
+      </c>
+      <c r="J8" s="9">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>950.7</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="1"/>
+        <v>998.9</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2159,27 +2313,45 @@
     </row>
     <row r="9" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C9" s="9">
+        <v>27.1</v>
+      </c>
+      <c r="D9" s="9">
         <v>162</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="E9" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="F9" s="9">
+        <v>41.4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9">
         <v>137.30000000000001</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="I9" s="9">
+        <v>75.8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>31.8</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10">
+        <f t="shared" si="0"/>
+        <v>312.29999999999995</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="1"/>
+        <v>260.90000000000003</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -2395,27 +2567,45 @@
     </row>
     <row r="10" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D10" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="E10" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45.1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9">
         <v>26.6</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="I10" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="J10" s="9">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10">
+        <f t="shared" si="0"/>
+        <v>70.8</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="1"/>
+        <v>88.7</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -2653,27 +2843,45 @@
     </row>
     <row r="11" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="11">
+        <v>84.8</v>
+      </c>
+      <c r="D11" s="11">
         <v>281.10000000000002</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
+      <c r="E11" s="11">
+        <v>609.9</v>
+      </c>
+      <c r="F11" s="11">
+        <v>358</v>
+      </c>
+      <c r="G11" s="11">
+        <v>88.1</v>
+      </c>
+      <c r="H11" s="11">
         <v>267.8</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="I11" s="11">
+        <v>607.9</v>
+      </c>
+      <c r="J11" s="11">
+        <v>384.6</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="11">
+        <f>+SUM(C11:F11)</f>
+        <v>1333.8</v>
+      </c>
+      <c r="Q11" s="11">
+        <f>+SUM(G11:J11)</f>
+        <v>1348.4</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -2911,27 +3119,45 @@
     </row>
     <row r="12" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="9">
+        <v>29.6</v>
+      </c>
+      <c r="D12" s="9">
         <v>101.6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="E12" s="9">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>125</v>
+      </c>
+      <c r="G12" s="9">
+        <v>35.5</v>
+      </c>
+      <c r="H12" s="9">
         <v>103.7</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="I12" s="9">
+        <v>155.9</v>
+      </c>
+      <c r="J12" s="9">
+        <v>110.2</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10">
+        <f>+SUM(C12:F12)</f>
+        <v>416.4</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>+SUM(G12:J12)</f>
+        <v>405.3</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -3169,47 +3395,53 @@
     </row>
     <row r="13" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:G13" si="0">+C11-C12</f>
-        <v>0</v>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:G13" si="2">+C11-C12</f>
+        <v>55.199999999999996</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
+      <c r="D13" s="9">
+        <f t="shared" si="2"/>
         <v>179.50000000000003</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
+        <v>449.7</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F13" s="9">
+        <f t="shared" si="2"/>
+        <v>233</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G13" s="9">
+        <f t="shared" ref="G13" si="3">+G11-G12</f>
+        <v>52.599999999999994</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="9">
         <f>+H11-H12</f>
         <v>164.10000000000002</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13:J13" si="1">+I11-I12</f>
-        <v>0</v>
+      <c r="I13" s="9">
+        <f t="shared" ref="I13:J13" si="4">+I11-I12</f>
+        <v>452</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>274.40000000000003</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
+        <f>+P11-P12</f>
+        <v>917.4</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>+Q11-Q12</f>
+        <v>943.10000000000014</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -3447,27 +3679,45 @@
     </row>
     <row r="14" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="9">
+        <v>154.9</v>
+      </c>
+      <c r="D14" s="9">
         <v>177.2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="E14" s="9">
+        <v>250.9</v>
+      </c>
+      <c r="F14" s="9">
+        <v>209.9</v>
+      </c>
+      <c r="G14" s="9">
+        <v>149.5</v>
+      </c>
+      <c r="H14" s="9">
         <v>162.5</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="I14" s="9">
+        <v>247.7</v>
+      </c>
+      <c r="J14" s="9">
+        <v>219.3</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10">
+        <f>+SUM(C14:F14)</f>
+        <v>792.9</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>+SUM(G14:J14)</f>
+        <v>779</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -3705,47 +3955,53 @@
     </row>
     <row r="15" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:G15" si="2">+C13-C14</f>
-        <v>0</v>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:G15" si="5">+C13-C14</f>
+        <v>-99.700000000000017</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
+      <c r="D15" s="9">
+        <f t="shared" si="5"/>
         <v>2.3000000000000398</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E15" s="9">
+        <f t="shared" si="5"/>
+        <v>198.79999999999998</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F15" s="9">
+        <f t="shared" si="5"/>
+        <v>23.099999999999994</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G15" s="9">
+        <f t="shared" ref="G15" si="6">+G13-G14</f>
+        <v>-96.9</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="9">
         <f>+H13-H14</f>
         <v>1.6000000000000227</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" ref="I15:J15" si="3">+I13-I14</f>
-        <v>0</v>
+      <c r="I15" s="9">
+        <f t="shared" ref="I15:J15" si="7">+I13-I14</f>
+        <v>204.3</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J15" s="9">
+        <f t="shared" si="7"/>
+        <v>55.100000000000023</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10">
+        <f>+P13-P14</f>
+        <v>124.5</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>+Q13-Q14</f>
+        <v>164.10000000000014</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -3983,27 +4239,45 @@
     </row>
     <row r="16" spans="1:251" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="D16" s="9">
         <v>13.6</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="E16" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H16" s="9">
         <v>8.5</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="I16" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>10</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10">
+        <f>+SUM(C16:F16)</f>
+        <v>48.800000000000004</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>+SUM(G16:J16)</f>
+        <v>36</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -4241,47 +4515,53 @@
     </row>
     <row r="17" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:G17" si="4">+C15-C16</f>
-        <v>0</v>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:G17" si="8">+C15-C16</f>
+        <v>-114.20000000000002</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="4"/>
+      <c r="D17" s="9">
+        <f t="shared" si="8"/>
         <v>-11.29999999999996</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="E17" s="9">
+        <f t="shared" si="8"/>
+        <v>183.99999999999997</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="F17" s="9">
+        <f t="shared" si="8"/>
+        <v>17.199999999999996</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="G17" s="9">
+        <f t="shared" ref="G17" si="9">+G15-G16</f>
+        <v>-100.10000000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="9">
         <f>+H15-H16</f>
         <v>-6.8999999999999773</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" ref="I17:J17" si="5">+I15-I16</f>
-        <v>0</v>
+      <c r="I17" s="9">
+        <f t="shared" ref="I17:J17" si="10">+I15-I16</f>
+        <v>190</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="J17" s="9">
+        <f t="shared" si="10"/>
+        <v>45.100000000000023</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9">
+        <f>+P15-P16</f>
+        <v>75.699999999999989</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>+Q15-Q16</f>
+        <v>128.10000000000014</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -4519,27 +4799,45 @@
     </row>
     <row r="18" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="C18" s="9">
+        <v>-29.2</v>
+      </c>
+      <c r="D18" s="9">
         <v>-15.4</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="E18" s="9">
+        <v>52.6</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-26.1</v>
+      </c>
+      <c r="H18" s="9">
         <v>-13.2</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="I18" s="9">
+        <v>46.4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10">
+        <f>+SUM(C18:F18)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>+SUM(G18:J18)</f>
+        <v>24.5</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -4777,47 +5075,53 @@
     </row>
     <row r="19" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:G19" si="6">+C17-C18</f>
-        <v>0</v>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:G19" si="11">+C17-C18</f>
+        <v>-85.000000000000014</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="6"/>
+      <c r="D19" s="9">
+        <f t="shared" si="11"/>
         <v>4.1000000000000405</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="E19" s="9">
+        <f t="shared" si="11"/>
+        <v>131.39999999999998</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="F19" s="9">
+        <f t="shared" si="11"/>
+        <v>7.5999999999999961</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G19" s="9">
+        <f t="shared" ref="G19" si="12">+G17-G18</f>
+        <v>-74</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="9">
         <f>+H17-H18</f>
         <v>6.300000000000022</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" ref="I19:J19" si="7">+I17-I18</f>
-        <v>0</v>
+      <c r="I19" s="9">
+        <f t="shared" ref="I19:J19" si="13">+I17-I18</f>
+        <v>143.6</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="J19" s="9">
+        <f t="shared" si="13"/>
+        <v>27.700000000000024</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
+        <f>+P17-P18</f>
+        <v>58.099999999999987</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>+Q17-Q18</f>
+        <v>103.60000000000014</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -5055,27 +5359,45 @@
     </row>
     <row r="20" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="C20" s="9">
+        <v>-3.9</v>
+      </c>
+      <c r="D20" s="9">
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
+      <c r="E20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="H20" s="9">
         <v>0.9</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="I20" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10">
+        <f>+SUM(C20:F20)</f>
+        <v>-0.29999999999999938</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>+SUM(G20:J20)</f>
+        <v>8.7999999999999989</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -5313,47 +5635,53 @@
     </row>
     <row r="21" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:G21" si="8">+C19-C20</f>
-        <v>0</v>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:G21" si="14">+C19-C20</f>
+        <v>-81.100000000000009</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="8"/>
+      <c r="D21" s="9">
+        <f t="shared" si="14"/>
         <v>3.9000000000000403</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E21" s="9">
+        <f t="shared" si="14"/>
+        <v>130.59999999999997</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="F21" s="9">
+        <f t="shared" si="14"/>
+        <v>4.9999999999999964</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21" si="15">+G19-G20</f>
+        <v>-77.400000000000006</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="9">
         <f>+H19-H20</f>
         <v>5.4000000000000217</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:J21" si="9">+I19-I20</f>
-        <v>0</v>
+      <c r="I21" s="9">
+        <f t="shared" ref="I21:J21" si="16">+I19-I20</f>
+        <v>139.69999999999999</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="J21" s="9">
+        <f t="shared" si="16"/>
+        <v>27.100000000000023</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9">
+        <f>+P19-P20</f>
+        <v>58.399999999999984</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>+Q19-Q20</f>
+        <v>94.800000000000139</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -5842,27 +6170,39 @@
     </row>
     <row r="23" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7" t="e">
-        <f t="shared" ref="G23:G31" si="10">+G3/C3-1</f>
-        <v>#DIV/0!</v>
+      <c r="C23" s="12">
+        <f t="shared" ref="C23:H23" si="17">+C21/C24</f>
+        <v>-0.78198249088170813</v>
       </c>
-      <c r="H23" s="7">
-        <f>+H3/D3-1</f>
-        <v>-3.4542314335059832E-3</v>
+      <c r="D23" s="12">
+        <f t="shared" si="17"/>
+        <v>3.8060491608242659E-2</v>
       </c>
-      <c r="I23" s="7" t="e">
-        <f t="shared" ref="I23:J31" si="11">+I3/E3-1</f>
-        <v>#DIV/0!</v>
+      <c r="E23" s="12">
+        <f t="shared" si="17"/>
+        <v>1.3026980122673653</v>
       </c>
-      <c r="J23" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="F23" s="12">
+        <f t="shared" si="17"/>
+        <v>5.0324169174638694E-2</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="17"/>
+        <v>-0.80114499559965413</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="17"/>
+        <v>5.5828423869616534E-2</v>
+      </c>
+      <c r="I23" s="12">
+        <f>+I21/I24</f>
+        <v>1.443196950877119</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" ref="J23" si="18">+J21/J24</f>
+        <v>0.27989967321558246</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -6108,27 +6448,31 @@
     </row>
     <row r="24" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="2">
+        <v>103.710762</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" ref="H24:H31" si="12">+H4/D4-1</f>
-        <v>-4.2296072507552962E-2</v>
+      <c r="D24" s="2">
+        <v>102.468461</v>
       </c>
-      <c r="I24" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="E24" s="2">
+        <v>100.253473</v>
       </c>
-      <c r="J24" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="F24" s="2">
+        <v>99.355838000000006</v>
+      </c>
+      <c r="G24" s="2">
+        <v>96.611725000000007</v>
+      </c>
+      <c r="H24" s="2">
+        <v>96.724923000000004</v>
+      </c>
+      <c r="I24" s="2">
+        <v>96.798985000000002</v>
+      </c>
+      <c r="J24" s="2">
+        <v>96.820406000000006</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -6373,29 +6717,14 @@
       <c r="IQ24" s="3"/>
     </row>
     <row r="25" spans="2:251" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="12"/>
-        <v>5.6947608200455635E-2</v>
-      </c>
-      <c r="I25" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -6640,27 +6969,27 @@
     </row>
     <row r="26" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:G34" si="19">+G3/C3-1</f>
+        <v>-6.8085106382978822E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.005025125628134E-2</v>
+        <f>+H3/D3-1</f>
+        <v>-3.4542314335059832E-3</v>
       </c>
-      <c r="I26" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:J34" si="20">+I3/E3-1</f>
+        <v>-4.0042149631190793E-2</v>
       </c>
-      <c r="J26" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="7">
+        <f t="shared" si="20"/>
+        <v>-1.4285714285713347E-3</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -6906,27 +7235,27 @@
     </row>
     <row r="27" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="7">
+        <f t="shared" si="19"/>
+        <v>2.2099447513812098E-2</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.13519313304721037</v>
+        <f t="shared" ref="H27:H34" si="21">+H4/D4-1</f>
+        <v>-4.2296072507552962E-2</v>
       </c>
-      <c r="I27" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I27" s="7">
+        <f t="shared" si="20"/>
+        <v>2.5396825396825307E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15338164251207731</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -7172,27 +7501,27 @@
     </row>
     <row r="28" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="7">
+        <f t="shared" si="19"/>
+        <v>0.12307692307692308</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="12"/>
-        <v>-5.0274223034734944E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.6947608200455635E-2</v>
       </c>
-      <c r="I28" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I28" s="7">
+        <f t="shared" si="20"/>
+        <v>-4.7288503253796077E-2</v>
       </c>
-      <c r="J28" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="7">
+        <f t="shared" si="20"/>
+        <v>7.943925233644844E-2</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -7438,27 +7767,27 @@
     </row>
     <row r="29" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="7">
+        <f t="shared" si="19"/>
+        <v>0.78</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.15246913580246901</v>
+        <f t="shared" si="21"/>
+        <v>-1.005025125628134E-2</v>
       </c>
-      <c r="I29" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I29" s="7">
+        <f t="shared" si="20"/>
+        <v>0.26616915422885556</v>
       </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="7">
+        <f t="shared" si="20"/>
+        <v>0.62564102564102564</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -7704,27 +8033,27 @@
     </row>
     <row r="30" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="7">
+        <f t="shared" si="19"/>
+        <v>-9.6256684491978661E-2</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="12"/>
-        <v>1.7422680412371139</v>
+        <f t="shared" si="21"/>
+        <v>-0.13519313304721037</v>
       </c>
-      <c r="I30" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I30" s="7">
+        <f t="shared" si="20"/>
+        <v>-2.3041474654377891E-2</v>
       </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="7">
+        <f t="shared" si="20"/>
+        <v>-0.14982578397212543</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -7970,27 +8299,27 @@
     </row>
     <row r="31" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="G31" s="7">
+        <f t="shared" si="19"/>
+        <v>0.13082437275985681</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="12"/>
-        <v>-4.7314123087869087E-2</v>
+        <f t="shared" si="21"/>
+        <v>-5.0274223034734944E-2</v>
       </c>
-      <c r="I31" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="I31" s="7">
+        <f t="shared" si="20"/>
+        <v>7.3929961089493901E-3</v>
       </c>
-      <c r="J31" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15690607734806639</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -8236,39 +8565,27 @@
     </row>
     <row r="32" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
-      <c r="C32" s="7" t="e">
-        <f t="shared" ref="C32:H32" si="13">+C13/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="13"/>
-        <v>0.6385627890430452</v>
-      </c>
-      <c r="E32" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="7">
+        <f t="shared" si="19"/>
+        <v>-0.40959409594095941</v>
       </c>
       <c r="H32" s="7">
-        <f>+H13/H11</f>
-        <v>0.61277072442120994</v>
+        <f t="shared" si="21"/>
+        <v>-0.15246913580246901</v>
       </c>
-      <c r="I32" s="7" t="e">
-        <f>+I13/I11</f>
-        <v>#DIV/0!</v>
+      <c r="I32" s="7">
+        <f t="shared" si="20"/>
+        <v>-7.3349633251833746E-2</v>
       </c>
-      <c r="J32" s="7" t="e">
-        <f>+J13/J11</f>
-        <v>#DIV/0!</v>
+      <c r="J32" s="7">
+        <f t="shared" si="20"/>
+        <v>-0.23188405797101441</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -8514,39 +8831,27 @@
     </row>
     <row r="33" spans="2:251" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="C33" s="7" t="e">
-        <f t="shared" ref="C33:H33" si="14">+C15/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="14"/>
-        <v>8.1821415866241178E-3</v>
-      </c>
-      <c r="E33" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="7">
+        <f t="shared" si="19"/>
+        <v>3.7368421052631584</v>
       </c>
       <c r="H33" s="7">
-        <f>+H15/H11</f>
-        <v>5.9746079163555737E-3</v>
+        <f t="shared" si="21"/>
+        <v>1.7422680412371139</v>
       </c>
-      <c r="I33" s="7" t="e">
-        <f>+I15/I11</f>
-        <v>#DIV/0!</v>
+      <c r="I33" s="7">
+        <f t="shared" si="20"/>
+        <v>2.1276595744680993E-2</v>
       </c>
-      <c r="J33" s="7" t="e">
-        <f>+J15/J11</f>
-        <v>#DIV/0!</v>
+      <c r="J33" s="7">
+        <f t="shared" si="20"/>
+        <v>-0.14190687361419063</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -8791,40 +9096,28 @@
       <c r="IQ33" s="3"/>
     </row>
     <row r="34" spans="2:251" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>50</v>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
       </c>
-      <c r="C34" s="7" t="e">
-        <f t="shared" ref="C34:H34" si="15">+C18/C17</f>
-        <v>#DIV/0!</v>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8">
+        <f t="shared" si="19"/>
+        <v>3.8915094339622591E-2</v>
       </c>
-      <c r="D34" s="7">
-        <f t="shared" si="15"/>
-        <v>1.3628318584070844</v>
+      <c r="H34" s="8">
+        <f t="shared" si="21"/>
+        <v>-4.7314123087869087E-2</v>
       </c>
-      <c r="E34" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="I34" s="8">
+        <f t="shared" si="20"/>
+        <v>-3.279226102639754E-3</v>
       </c>
-      <c r="F34" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="7">
-        <f>+H18/H17</f>
-        <v>1.9130434782608758</v>
-      </c>
-      <c r="I34" s="7" t="e">
-        <f>+I18/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="7" t="e">
-        <f>+J18/J17</f>
-        <v>#DIV/0!</v>
+      <c r="J34" s="8">
+        <f t="shared" si="20"/>
+        <v>7.4301675977653803E-2</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -9069,14 +9362,41 @@
       <c r="IQ34" s="3"/>
     </row>
     <row r="35" spans="2:251" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" ref="C35:G35" si="22">+C13/C11</f>
+        <v>0.65094339622641506</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.6385627890430452</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.73733398917855386</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.65083798882681565</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.59704880817253114</v>
+      </c>
+      <c r="H35" s="7">
+        <f>+H13/H11</f>
+        <v>0.61277072442120994</v>
+      </c>
+      <c r="I35" s="7">
+        <f>+I13/I11</f>
+        <v>0.74354334594505678</v>
+      </c>
+      <c r="J35" s="7">
+        <f>+J13/J11</f>
+        <v>0.7134685387415497</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -9320,14 +9640,41 @@
       <c r="IQ35" s="3"/>
     </row>
     <row r="36" spans="2:251" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:G36" si="23">+C15/C11</f>
+        <v>-1.1757075471698115</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="23"/>
+        <v>8.1821415866241178E-3</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="23"/>
+        <v>0.32595507460239381</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="23"/>
+        <v>6.4525139664804457E-2</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="23"/>
+        <v>-1.0998864926220207</v>
+      </c>
+      <c r="H36" s="7">
+        <f>+H15/H11</f>
+        <v>5.9746079163555737E-3</v>
+      </c>
+      <c r="I36" s="7">
+        <f>+I15/I11</f>
+        <v>0.33607501233755555</v>
+      </c>
+      <c r="J36" s="7">
+        <f>+J15/J11</f>
+        <v>0.14326573062922521</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -9571,14 +9918,41 @@
       <c r="IQ36" s="3"/>
     </row>
     <row r="37" spans="2:251" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:G37" si="24">+C18/C17</f>
+        <v>0.25569176882661993</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="24"/>
+        <v>1.3628318584070844</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.28586956521739137</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.55813953488372103</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.26073926073926074</v>
+      </c>
+      <c r="H37" s="7">
+        <f>+H18/H17</f>
+        <v>1.9130434782608758</v>
+      </c>
+      <c r="I37" s="7">
+        <f>+I18/I17</f>
+        <v>0.24421052631578946</v>
+      </c>
+      <c r="J37" s="7">
+        <f>+J18/J17</f>
+        <v>0.3858093126385807</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -41197,45 +41571,45 @@
       <c r="IQ162" s="3"/>
     </row>
     <row r="163" spans="3:251" x14ac:dyDescent="0.25">
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-      <c r="AF163" s="3"/>
-      <c r="AG163" s="3"/>
-      <c r="AH163" s="3"/>
-      <c r="AI163" s="3"/>
-      <c r="AJ163" s="3"/>
-      <c r="AK163" s="3"/>
-      <c r="AL163" s="3"/>
-      <c r="AM163" s="3"/>
-      <c r="AN163" s="3"/>
-      <c r="AO163" s="3"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
+      <c r="AB163" s="2"/>
+      <c r="AC163" s="2"/>
+      <c r="AD163" s="2"/>
+      <c r="AE163" s="2"/>
+      <c r="AF163" s="2"/>
+      <c r="AG163" s="2"/>
+      <c r="AH163" s="2"/>
+      <c r="AI163" s="2"/>
+      <c r="AJ163" s="2"/>
+      <c r="AK163" s="2"/>
+      <c r="AL163" s="2"/>
+      <c r="AM163" s="2"/>
+      <c r="AN163" s="2"/>
+      <c r="AO163" s="2"/>
       <c r="AP163" s="3"/>
       <c r="AQ163" s="3"/>
       <c r="AR163" s="3"/>
@@ -41448,45 +41822,45 @@
       <c r="IQ163" s="3"/>
     </row>
     <row r="164" spans="3:251" x14ac:dyDescent="0.25">
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-      <c r="AF164" s="3"/>
-      <c r="AG164" s="3"/>
-      <c r="AH164" s="3"/>
-      <c r="AI164" s="3"/>
-      <c r="AJ164" s="3"/>
-      <c r="AK164" s="3"/>
-      <c r="AL164" s="3"/>
-      <c r="AM164" s="3"/>
-      <c r="AN164" s="3"/>
-      <c r="AO164" s="3"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="2"/>
+      <c r="AC164" s="2"/>
+      <c r="AD164" s="2"/>
+      <c r="AE164" s="2"/>
+      <c r="AF164" s="2"/>
+      <c r="AG164" s="2"/>
+      <c r="AH164" s="2"/>
+      <c r="AI164" s="2"/>
+      <c r="AJ164" s="2"/>
+      <c r="AK164" s="2"/>
+      <c r="AL164" s="2"/>
+      <c r="AM164" s="2"/>
+      <c r="AN164" s="2"/>
+      <c r="AO164" s="2"/>
       <c r="AP164" s="3"/>
       <c r="AQ164" s="3"/>
       <c r="AR164" s="3"/>
@@ -41699,45 +42073,45 @@
       <c r="IQ164" s="3"/>
     </row>
     <row r="165" spans="3:251" x14ac:dyDescent="0.25">
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-      <c r="AF165" s="3"/>
-      <c r="AG165" s="3"/>
-      <c r="AH165" s="3"/>
-      <c r="AI165" s="3"/>
-      <c r="AJ165" s="3"/>
-      <c r="AK165" s="3"/>
-      <c r="AL165" s="3"/>
-      <c r="AM165" s="3"/>
-      <c r="AN165" s="3"/>
-      <c r="AO165" s="3"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
+      <c r="AB165" s="2"/>
+      <c r="AC165" s="2"/>
+      <c r="AD165" s="2"/>
+      <c r="AE165" s="2"/>
+      <c r="AF165" s="2"/>
+      <c r="AG165" s="2"/>
+      <c r="AH165" s="2"/>
+      <c r="AI165" s="2"/>
+      <c r="AJ165" s="2"/>
+      <c r="AK165" s="2"/>
+      <c r="AL165" s="2"/>
+      <c r="AM165" s="2"/>
+      <c r="AN165" s="2"/>
+      <c r="AO165" s="2"/>
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
       <c r="AR165" s="3"/>
@@ -74328,6 +74702,759 @@
       <c r="IP294" s="3"/>
       <c r="IQ294" s="3"/>
     </row>
+    <row r="295" spans="3:251" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
+      <c r="Z295" s="3"/>
+      <c r="AA295" s="3"/>
+      <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
+      <c r="AD295" s="3"/>
+      <c r="AE295" s="3"/>
+      <c r="AF295" s="3"/>
+      <c r="AG295" s="3"/>
+      <c r="AH295" s="3"/>
+      <c r="AI295" s="3"/>
+      <c r="AJ295" s="3"/>
+      <c r="AK295" s="3"/>
+      <c r="AL295" s="3"/>
+      <c r="AM295" s="3"/>
+      <c r="AN295" s="3"/>
+      <c r="AO295" s="3"/>
+      <c r="AP295" s="3"/>
+      <c r="AQ295" s="3"/>
+      <c r="AR295" s="3"/>
+      <c r="AS295" s="3"/>
+      <c r="AT295" s="3"/>
+      <c r="AU295" s="3"/>
+      <c r="AV295" s="3"/>
+      <c r="AW295" s="3"/>
+      <c r="AX295" s="3"/>
+      <c r="AY295" s="3"/>
+      <c r="AZ295" s="3"/>
+      <c r="BA295" s="3"/>
+      <c r="BB295" s="3"/>
+      <c r="BC295" s="3"/>
+      <c r="BD295" s="3"/>
+      <c r="BE295" s="3"/>
+      <c r="BF295" s="3"/>
+      <c r="BG295" s="3"/>
+      <c r="BH295" s="3"/>
+      <c r="BI295" s="3"/>
+      <c r="BJ295" s="3"/>
+      <c r="BK295" s="3"/>
+      <c r="BL295" s="3"/>
+      <c r="BM295" s="3"/>
+      <c r="BN295" s="3"/>
+      <c r="BO295" s="3"/>
+      <c r="BP295" s="3"/>
+      <c r="BQ295" s="3"/>
+      <c r="BR295" s="3"/>
+      <c r="BS295" s="3"/>
+      <c r="BT295" s="3"/>
+      <c r="BU295" s="3"/>
+      <c r="BV295" s="3"/>
+      <c r="BW295" s="3"/>
+      <c r="BX295" s="3"/>
+      <c r="BY295" s="3"/>
+      <c r="BZ295" s="3"/>
+      <c r="CA295" s="3"/>
+      <c r="CB295" s="3"/>
+      <c r="CC295" s="3"/>
+      <c r="CD295" s="3"/>
+      <c r="CE295" s="3"/>
+      <c r="CF295" s="3"/>
+      <c r="CG295" s="3"/>
+      <c r="CH295" s="3"/>
+      <c r="CI295" s="3"/>
+      <c r="CJ295" s="3"/>
+      <c r="CK295" s="3"/>
+      <c r="CL295" s="3"/>
+      <c r="CM295" s="3"/>
+      <c r="CN295" s="3"/>
+      <c r="CO295" s="3"/>
+      <c r="CP295" s="3"/>
+      <c r="CQ295" s="3"/>
+      <c r="CR295" s="3"/>
+      <c r="CS295" s="3"/>
+      <c r="CT295" s="3"/>
+      <c r="CU295" s="3"/>
+      <c r="CV295" s="3"/>
+      <c r="CW295" s="3"/>
+      <c r="CX295" s="3"/>
+      <c r="CY295" s="3"/>
+      <c r="CZ295" s="3"/>
+      <c r="DA295" s="3"/>
+      <c r="DB295" s="3"/>
+      <c r="DC295" s="3"/>
+      <c r="DD295" s="3"/>
+      <c r="DE295" s="3"/>
+      <c r="DF295" s="3"/>
+      <c r="DG295" s="3"/>
+      <c r="DH295" s="3"/>
+      <c r="DI295" s="3"/>
+      <c r="DJ295" s="3"/>
+      <c r="DK295" s="3"/>
+      <c r="DL295" s="3"/>
+      <c r="DM295" s="3"/>
+      <c r="DN295" s="3"/>
+      <c r="DO295" s="3"/>
+      <c r="DP295" s="3"/>
+      <c r="DQ295" s="3"/>
+      <c r="DR295" s="3"/>
+      <c r="DS295" s="3"/>
+      <c r="DT295" s="3"/>
+      <c r="DU295" s="3"/>
+      <c r="DV295" s="3"/>
+      <c r="DW295" s="3"/>
+      <c r="DX295" s="3"/>
+      <c r="DY295" s="3"/>
+      <c r="DZ295" s="3"/>
+      <c r="EA295" s="3"/>
+      <c r="EB295" s="3"/>
+      <c r="EC295" s="3"/>
+      <c r="ED295" s="3"/>
+      <c r="EE295" s="3"/>
+      <c r="EF295" s="3"/>
+      <c r="EG295" s="3"/>
+      <c r="EH295" s="3"/>
+      <c r="EI295" s="3"/>
+      <c r="EJ295" s="3"/>
+      <c r="EK295" s="3"/>
+      <c r="EL295" s="3"/>
+      <c r="EM295" s="3"/>
+      <c r="EN295" s="3"/>
+      <c r="EO295" s="3"/>
+      <c r="EP295" s="3"/>
+      <c r="EQ295" s="3"/>
+      <c r="ER295" s="3"/>
+      <c r="ES295" s="3"/>
+      <c r="ET295" s="3"/>
+      <c r="EU295" s="3"/>
+      <c r="EV295" s="3"/>
+      <c r="EW295" s="3"/>
+      <c r="EX295" s="3"/>
+      <c r="EY295" s="3"/>
+      <c r="EZ295" s="3"/>
+      <c r="FA295" s="3"/>
+      <c r="FB295" s="3"/>
+      <c r="FC295" s="3"/>
+      <c r="FD295" s="3"/>
+      <c r="FE295" s="3"/>
+      <c r="FF295" s="3"/>
+      <c r="FG295" s="3"/>
+      <c r="FH295" s="3"/>
+      <c r="FI295" s="3"/>
+      <c r="FJ295" s="3"/>
+      <c r="FK295" s="3"/>
+      <c r="FL295" s="3"/>
+      <c r="FM295" s="3"/>
+      <c r="FN295" s="3"/>
+      <c r="FO295" s="3"/>
+      <c r="FP295" s="3"/>
+      <c r="FQ295" s="3"/>
+      <c r="FR295" s="3"/>
+      <c r="FS295" s="3"/>
+      <c r="FT295" s="3"/>
+      <c r="FU295" s="3"/>
+      <c r="FV295" s="3"/>
+      <c r="FW295" s="3"/>
+      <c r="FX295" s="3"/>
+      <c r="FY295" s="3"/>
+      <c r="FZ295" s="3"/>
+      <c r="GA295" s="3"/>
+      <c r="GB295" s="3"/>
+      <c r="GC295" s="3"/>
+      <c r="GD295" s="3"/>
+      <c r="GE295" s="3"/>
+      <c r="GF295" s="3"/>
+      <c r="GG295" s="3"/>
+      <c r="GH295" s="3"/>
+      <c r="GI295" s="3"/>
+      <c r="GJ295" s="3"/>
+      <c r="GK295" s="3"/>
+      <c r="GL295" s="3"/>
+      <c r="GM295" s="3"/>
+      <c r="GN295" s="3"/>
+      <c r="GO295" s="3"/>
+      <c r="GP295" s="3"/>
+      <c r="GQ295" s="3"/>
+      <c r="GR295" s="3"/>
+      <c r="GS295" s="3"/>
+      <c r="GT295" s="3"/>
+      <c r="GU295" s="3"/>
+      <c r="GV295" s="3"/>
+      <c r="GW295" s="3"/>
+      <c r="GX295" s="3"/>
+      <c r="GY295" s="3"/>
+      <c r="GZ295" s="3"/>
+      <c r="HA295" s="3"/>
+      <c r="HB295" s="3"/>
+      <c r="HC295" s="3"/>
+      <c r="HD295" s="3"/>
+      <c r="HE295" s="3"/>
+      <c r="HF295" s="3"/>
+      <c r="HG295" s="3"/>
+      <c r="HH295" s="3"/>
+      <c r="HI295" s="3"/>
+      <c r="HJ295" s="3"/>
+      <c r="HK295" s="3"/>
+      <c r="HL295" s="3"/>
+      <c r="HM295" s="3"/>
+      <c r="HN295" s="3"/>
+      <c r="HO295" s="3"/>
+      <c r="HP295" s="3"/>
+      <c r="HQ295" s="3"/>
+      <c r="HR295" s="3"/>
+      <c r="HS295" s="3"/>
+      <c r="HT295" s="3"/>
+      <c r="HU295" s="3"/>
+      <c r="HV295" s="3"/>
+      <c r="HW295" s="3"/>
+      <c r="HX295" s="3"/>
+      <c r="HY295" s="3"/>
+      <c r="HZ295" s="3"/>
+      <c r="IA295" s="3"/>
+      <c r="IB295" s="3"/>
+      <c r="IC295" s="3"/>
+      <c r="ID295" s="3"/>
+      <c r="IE295" s="3"/>
+      <c r="IF295" s="3"/>
+      <c r="IG295" s="3"/>
+      <c r="IH295" s="3"/>
+      <c r="II295" s="3"/>
+      <c r="IJ295" s="3"/>
+      <c r="IK295" s="3"/>
+      <c r="IL295" s="3"/>
+      <c r="IM295" s="3"/>
+      <c r="IN295" s="3"/>
+      <c r="IO295" s="3"/>
+      <c r="IP295" s="3"/>
+      <c r="IQ295" s="3"/>
+    </row>
+    <row r="296" spans="3:251" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
+      <c r="Z296" s="3"/>
+      <c r="AA296" s="3"/>
+      <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
+      <c r="AD296" s="3"/>
+      <c r="AE296" s="3"/>
+      <c r="AF296" s="3"/>
+      <c r="AG296" s="3"/>
+      <c r="AH296" s="3"/>
+      <c r="AI296" s="3"/>
+      <c r="AJ296" s="3"/>
+      <c r="AK296" s="3"/>
+      <c r="AL296" s="3"/>
+      <c r="AM296" s="3"/>
+      <c r="AN296" s="3"/>
+      <c r="AO296" s="3"/>
+      <c r="AP296" s="3"/>
+      <c r="AQ296" s="3"/>
+      <c r="AR296" s="3"/>
+      <c r="AS296" s="3"/>
+      <c r="AT296" s="3"/>
+      <c r="AU296" s="3"/>
+      <c r="AV296" s="3"/>
+      <c r="AW296" s="3"/>
+      <c r="AX296" s="3"/>
+      <c r="AY296" s="3"/>
+      <c r="AZ296" s="3"/>
+      <c r="BA296" s="3"/>
+      <c r="BB296" s="3"/>
+      <c r="BC296" s="3"/>
+      <c r="BD296" s="3"/>
+      <c r="BE296" s="3"/>
+      <c r="BF296" s="3"/>
+      <c r="BG296" s="3"/>
+      <c r="BH296" s="3"/>
+      <c r="BI296" s="3"/>
+      <c r="BJ296" s="3"/>
+      <c r="BK296" s="3"/>
+      <c r="BL296" s="3"/>
+      <c r="BM296" s="3"/>
+      <c r="BN296" s="3"/>
+      <c r="BO296" s="3"/>
+      <c r="BP296" s="3"/>
+      <c r="BQ296" s="3"/>
+      <c r="BR296" s="3"/>
+      <c r="BS296" s="3"/>
+      <c r="BT296" s="3"/>
+      <c r="BU296" s="3"/>
+      <c r="BV296" s="3"/>
+      <c r="BW296" s="3"/>
+      <c r="BX296" s="3"/>
+      <c r="BY296" s="3"/>
+      <c r="BZ296" s="3"/>
+      <c r="CA296" s="3"/>
+      <c r="CB296" s="3"/>
+      <c r="CC296" s="3"/>
+      <c r="CD296" s="3"/>
+      <c r="CE296" s="3"/>
+      <c r="CF296" s="3"/>
+      <c r="CG296" s="3"/>
+      <c r="CH296" s="3"/>
+      <c r="CI296" s="3"/>
+      <c r="CJ296" s="3"/>
+      <c r="CK296" s="3"/>
+      <c r="CL296" s="3"/>
+      <c r="CM296" s="3"/>
+      <c r="CN296" s="3"/>
+      <c r="CO296" s="3"/>
+      <c r="CP296" s="3"/>
+      <c r="CQ296" s="3"/>
+      <c r="CR296" s="3"/>
+      <c r="CS296" s="3"/>
+      <c r="CT296" s="3"/>
+      <c r="CU296" s="3"/>
+      <c r="CV296" s="3"/>
+      <c r="CW296" s="3"/>
+      <c r="CX296" s="3"/>
+      <c r="CY296" s="3"/>
+      <c r="CZ296" s="3"/>
+      <c r="DA296" s="3"/>
+      <c r="DB296" s="3"/>
+      <c r="DC296" s="3"/>
+      <c r="DD296" s="3"/>
+      <c r="DE296" s="3"/>
+      <c r="DF296" s="3"/>
+      <c r="DG296" s="3"/>
+      <c r="DH296" s="3"/>
+      <c r="DI296" s="3"/>
+      <c r="DJ296" s="3"/>
+      <c r="DK296" s="3"/>
+      <c r="DL296" s="3"/>
+      <c r="DM296" s="3"/>
+      <c r="DN296" s="3"/>
+      <c r="DO296" s="3"/>
+      <c r="DP296" s="3"/>
+      <c r="DQ296" s="3"/>
+      <c r="DR296" s="3"/>
+      <c r="DS296" s="3"/>
+      <c r="DT296" s="3"/>
+      <c r="DU296" s="3"/>
+      <c r="DV296" s="3"/>
+      <c r="DW296" s="3"/>
+      <c r="DX296" s="3"/>
+      <c r="DY296" s="3"/>
+      <c r="DZ296" s="3"/>
+      <c r="EA296" s="3"/>
+      <c r="EB296" s="3"/>
+      <c r="EC296" s="3"/>
+      <c r="ED296" s="3"/>
+      <c r="EE296" s="3"/>
+      <c r="EF296" s="3"/>
+      <c r="EG296" s="3"/>
+      <c r="EH296" s="3"/>
+      <c r="EI296" s="3"/>
+      <c r="EJ296" s="3"/>
+      <c r="EK296" s="3"/>
+      <c r="EL296" s="3"/>
+      <c r="EM296" s="3"/>
+      <c r="EN296" s="3"/>
+      <c r="EO296" s="3"/>
+      <c r="EP296" s="3"/>
+      <c r="EQ296" s="3"/>
+      <c r="ER296" s="3"/>
+      <c r="ES296" s="3"/>
+      <c r="ET296" s="3"/>
+      <c r="EU296" s="3"/>
+      <c r="EV296" s="3"/>
+      <c r="EW296" s="3"/>
+      <c r="EX296" s="3"/>
+      <c r="EY296" s="3"/>
+      <c r="EZ296" s="3"/>
+      <c r="FA296" s="3"/>
+      <c r="FB296" s="3"/>
+      <c r="FC296" s="3"/>
+      <c r="FD296" s="3"/>
+      <c r="FE296" s="3"/>
+      <c r="FF296" s="3"/>
+      <c r="FG296" s="3"/>
+      <c r="FH296" s="3"/>
+      <c r="FI296" s="3"/>
+      <c r="FJ296" s="3"/>
+      <c r="FK296" s="3"/>
+      <c r="FL296" s="3"/>
+      <c r="FM296" s="3"/>
+      <c r="FN296" s="3"/>
+      <c r="FO296" s="3"/>
+      <c r="FP296" s="3"/>
+      <c r="FQ296" s="3"/>
+      <c r="FR296" s="3"/>
+      <c r="FS296" s="3"/>
+      <c r="FT296" s="3"/>
+      <c r="FU296" s="3"/>
+      <c r="FV296" s="3"/>
+      <c r="FW296" s="3"/>
+      <c r="FX296" s="3"/>
+      <c r="FY296" s="3"/>
+      <c r="FZ296" s="3"/>
+      <c r="GA296" s="3"/>
+      <c r="GB296" s="3"/>
+      <c r="GC296" s="3"/>
+      <c r="GD296" s="3"/>
+      <c r="GE296" s="3"/>
+      <c r="GF296" s="3"/>
+      <c r="GG296" s="3"/>
+      <c r="GH296" s="3"/>
+      <c r="GI296" s="3"/>
+      <c r="GJ296" s="3"/>
+      <c r="GK296" s="3"/>
+      <c r="GL296" s="3"/>
+      <c r="GM296" s="3"/>
+      <c r="GN296" s="3"/>
+      <c r="GO296" s="3"/>
+      <c r="GP296" s="3"/>
+      <c r="GQ296" s="3"/>
+      <c r="GR296" s="3"/>
+      <c r="GS296" s="3"/>
+      <c r="GT296" s="3"/>
+      <c r="GU296" s="3"/>
+      <c r="GV296" s="3"/>
+      <c r="GW296" s="3"/>
+      <c r="GX296" s="3"/>
+      <c r="GY296" s="3"/>
+      <c r="GZ296" s="3"/>
+      <c r="HA296" s="3"/>
+      <c r="HB296" s="3"/>
+      <c r="HC296" s="3"/>
+      <c r="HD296" s="3"/>
+      <c r="HE296" s="3"/>
+      <c r="HF296" s="3"/>
+      <c r="HG296" s="3"/>
+      <c r="HH296" s="3"/>
+      <c r="HI296" s="3"/>
+      <c r="HJ296" s="3"/>
+      <c r="HK296" s="3"/>
+      <c r="HL296" s="3"/>
+      <c r="HM296" s="3"/>
+      <c r="HN296" s="3"/>
+      <c r="HO296" s="3"/>
+      <c r="HP296" s="3"/>
+      <c r="HQ296" s="3"/>
+      <c r="HR296" s="3"/>
+      <c r="HS296" s="3"/>
+      <c r="HT296" s="3"/>
+      <c r="HU296" s="3"/>
+      <c r="HV296" s="3"/>
+      <c r="HW296" s="3"/>
+      <c r="HX296" s="3"/>
+      <c r="HY296" s="3"/>
+      <c r="HZ296" s="3"/>
+      <c r="IA296" s="3"/>
+      <c r="IB296" s="3"/>
+      <c r="IC296" s="3"/>
+      <c r="ID296" s="3"/>
+      <c r="IE296" s="3"/>
+      <c r="IF296" s="3"/>
+      <c r="IG296" s="3"/>
+      <c r="IH296" s="3"/>
+      <c r="II296" s="3"/>
+      <c r="IJ296" s="3"/>
+      <c r="IK296" s="3"/>
+      <c r="IL296" s="3"/>
+      <c r="IM296" s="3"/>
+      <c r="IN296" s="3"/>
+      <c r="IO296" s="3"/>
+      <c r="IP296" s="3"/>
+      <c r="IQ296" s="3"/>
+    </row>
+    <row r="297" spans="3:251" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
+      <c r="Z297" s="3"/>
+      <c r="AA297" s="3"/>
+      <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
+      <c r="AD297" s="3"/>
+      <c r="AE297" s="3"/>
+      <c r="AF297" s="3"/>
+      <c r="AG297" s="3"/>
+      <c r="AH297" s="3"/>
+      <c r="AI297" s="3"/>
+      <c r="AJ297" s="3"/>
+      <c r="AK297" s="3"/>
+      <c r="AL297" s="3"/>
+      <c r="AM297" s="3"/>
+      <c r="AN297" s="3"/>
+      <c r="AO297" s="3"/>
+      <c r="AP297" s="3"/>
+      <c r="AQ297" s="3"/>
+      <c r="AR297" s="3"/>
+      <c r="AS297" s="3"/>
+      <c r="AT297" s="3"/>
+      <c r="AU297" s="3"/>
+      <c r="AV297" s="3"/>
+      <c r="AW297" s="3"/>
+      <c r="AX297" s="3"/>
+      <c r="AY297" s="3"/>
+      <c r="AZ297" s="3"/>
+      <c r="BA297" s="3"/>
+      <c r="BB297" s="3"/>
+      <c r="BC297" s="3"/>
+      <c r="BD297" s="3"/>
+      <c r="BE297" s="3"/>
+      <c r="BF297" s="3"/>
+      <c r="BG297" s="3"/>
+      <c r="BH297" s="3"/>
+      <c r="BI297" s="3"/>
+      <c r="BJ297" s="3"/>
+      <c r="BK297" s="3"/>
+      <c r="BL297" s="3"/>
+      <c r="BM297" s="3"/>
+      <c r="BN297" s="3"/>
+      <c r="BO297" s="3"/>
+      <c r="BP297" s="3"/>
+      <c r="BQ297" s="3"/>
+      <c r="BR297" s="3"/>
+      <c r="BS297" s="3"/>
+      <c r="BT297" s="3"/>
+      <c r="BU297" s="3"/>
+      <c r="BV297" s="3"/>
+      <c r="BW297" s="3"/>
+      <c r="BX297" s="3"/>
+      <c r="BY297" s="3"/>
+      <c r="BZ297" s="3"/>
+      <c r="CA297" s="3"/>
+      <c r="CB297" s="3"/>
+      <c r="CC297" s="3"/>
+      <c r="CD297" s="3"/>
+      <c r="CE297" s="3"/>
+      <c r="CF297" s="3"/>
+      <c r="CG297" s="3"/>
+      <c r="CH297" s="3"/>
+      <c r="CI297" s="3"/>
+      <c r="CJ297" s="3"/>
+      <c r="CK297" s="3"/>
+      <c r="CL297" s="3"/>
+      <c r="CM297" s="3"/>
+      <c r="CN297" s="3"/>
+      <c r="CO297" s="3"/>
+      <c r="CP297" s="3"/>
+      <c r="CQ297" s="3"/>
+      <c r="CR297" s="3"/>
+      <c r="CS297" s="3"/>
+      <c r="CT297" s="3"/>
+      <c r="CU297" s="3"/>
+      <c r="CV297" s="3"/>
+      <c r="CW297" s="3"/>
+      <c r="CX297" s="3"/>
+      <c r="CY297" s="3"/>
+      <c r="CZ297" s="3"/>
+      <c r="DA297" s="3"/>
+      <c r="DB297" s="3"/>
+      <c r="DC297" s="3"/>
+      <c r="DD297" s="3"/>
+      <c r="DE297" s="3"/>
+      <c r="DF297" s="3"/>
+      <c r="DG297" s="3"/>
+      <c r="DH297" s="3"/>
+      <c r="DI297" s="3"/>
+      <c r="DJ297" s="3"/>
+      <c r="DK297" s="3"/>
+      <c r="DL297" s="3"/>
+      <c r="DM297" s="3"/>
+      <c r="DN297" s="3"/>
+      <c r="DO297" s="3"/>
+      <c r="DP297" s="3"/>
+      <c r="DQ297" s="3"/>
+      <c r="DR297" s="3"/>
+      <c r="DS297" s="3"/>
+      <c r="DT297" s="3"/>
+      <c r="DU297" s="3"/>
+      <c r="DV297" s="3"/>
+      <c r="DW297" s="3"/>
+      <c r="DX297" s="3"/>
+      <c r="DY297" s="3"/>
+      <c r="DZ297" s="3"/>
+      <c r="EA297" s="3"/>
+      <c r="EB297" s="3"/>
+      <c r="EC297" s="3"/>
+      <c r="ED297" s="3"/>
+      <c r="EE297" s="3"/>
+      <c r="EF297" s="3"/>
+      <c r="EG297" s="3"/>
+      <c r="EH297" s="3"/>
+      <c r="EI297" s="3"/>
+      <c r="EJ297" s="3"/>
+      <c r="EK297" s="3"/>
+      <c r="EL297" s="3"/>
+      <c r="EM297" s="3"/>
+      <c r="EN297" s="3"/>
+      <c r="EO297" s="3"/>
+      <c r="EP297" s="3"/>
+      <c r="EQ297" s="3"/>
+      <c r="ER297" s="3"/>
+      <c r="ES297" s="3"/>
+      <c r="ET297" s="3"/>
+      <c r="EU297" s="3"/>
+      <c r="EV297" s="3"/>
+      <c r="EW297" s="3"/>
+      <c r="EX297" s="3"/>
+      <c r="EY297" s="3"/>
+      <c r="EZ297" s="3"/>
+      <c r="FA297" s="3"/>
+      <c r="FB297" s="3"/>
+      <c r="FC297" s="3"/>
+      <c r="FD297" s="3"/>
+      <c r="FE297" s="3"/>
+      <c r="FF297" s="3"/>
+      <c r="FG297" s="3"/>
+      <c r="FH297" s="3"/>
+      <c r="FI297" s="3"/>
+      <c r="FJ297" s="3"/>
+      <c r="FK297" s="3"/>
+      <c r="FL297" s="3"/>
+      <c r="FM297" s="3"/>
+      <c r="FN297" s="3"/>
+      <c r="FO297" s="3"/>
+      <c r="FP297" s="3"/>
+      <c r="FQ297" s="3"/>
+      <c r="FR297" s="3"/>
+      <c r="FS297" s="3"/>
+      <c r="FT297" s="3"/>
+      <c r="FU297" s="3"/>
+      <c r="FV297" s="3"/>
+      <c r="FW297" s="3"/>
+      <c r="FX297" s="3"/>
+      <c r="FY297" s="3"/>
+      <c r="FZ297" s="3"/>
+      <c r="GA297" s="3"/>
+      <c r="GB297" s="3"/>
+      <c r="GC297" s="3"/>
+      <c r="GD297" s="3"/>
+      <c r="GE297" s="3"/>
+      <c r="GF297" s="3"/>
+      <c r="GG297" s="3"/>
+      <c r="GH297" s="3"/>
+      <c r="GI297" s="3"/>
+      <c r="GJ297" s="3"/>
+      <c r="GK297" s="3"/>
+      <c r="GL297" s="3"/>
+      <c r="GM297" s="3"/>
+      <c r="GN297" s="3"/>
+      <c r="GO297" s="3"/>
+      <c r="GP297" s="3"/>
+      <c r="GQ297" s="3"/>
+      <c r="GR297" s="3"/>
+      <c r="GS297" s="3"/>
+      <c r="GT297" s="3"/>
+      <c r="GU297" s="3"/>
+      <c r="GV297" s="3"/>
+      <c r="GW297" s="3"/>
+      <c r="GX297" s="3"/>
+      <c r="GY297" s="3"/>
+      <c r="GZ297" s="3"/>
+      <c r="HA297" s="3"/>
+      <c r="HB297" s="3"/>
+      <c r="HC297" s="3"/>
+      <c r="HD297" s="3"/>
+      <c r="HE297" s="3"/>
+      <c r="HF297" s="3"/>
+      <c r="HG297" s="3"/>
+      <c r="HH297" s="3"/>
+      <c r="HI297" s="3"/>
+      <c r="HJ297" s="3"/>
+      <c r="HK297" s="3"/>
+      <c r="HL297" s="3"/>
+      <c r="HM297" s="3"/>
+      <c r="HN297" s="3"/>
+      <c r="HO297" s="3"/>
+      <c r="HP297" s="3"/>
+      <c r="HQ297" s="3"/>
+      <c r="HR297" s="3"/>
+      <c r="HS297" s="3"/>
+      <c r="HT297" s="3"/>
+      <c r="HU297" s="3"/>
+      <c r="HV297" s="3"/>
+      <c r="HW297" s="3"/>
+      <c r="HX297" s="3"/>
+      <c r="HY297" s="3"/>
+      <c r="HZ297" s="3"/>
+      <c r="IA297" s="3"/>
+      <c r="IB297" s="3"/>
+      <c r="IC297" s="3"/>
+      <c r="ID297" s="3"/>
+      <c r="IE297" s="3"/>
+      <c r="IF297" s="3"/>
+      <c r="IG297" s="3"/>
+      <c r="IH297" s="3"/>
+      <c r="II297" s="3"/>
+      <c r="IJ297" s="3"/>
+      <c r="IK297" s="3"/>
+      <c r="IL297" s="3"/>
+      <c r="IM297" s="3"/>
+      <c r="IN297" s="3"/>
+      <c r="IO297" s="3"/>
+      <c r="IP297" s="3"/>
+      <c r="IQ297" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A5ADC41E-D9B8-4155-B811-4449B7F49B88}"/>
